--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>필요 기능</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>Front, Back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.03.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2096,6 +2092,17 @@
   <si>
     <t>모든 플레이어가 준비했을 때 방장은 게임시작 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신대환, 진의정, 이인우, 전재호, 허영명</t>
   </si>
 </sst>
 </file>
@@ -2364,11 +2371,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2378,53 +2382,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2434,28 +2402,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2676,734 +2686,743 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="11"/>
-    <col min="2" max="2" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="11"/>
+    <col min="1" max="1" width="12.5703125" style="7"/>
+    <col min="2" max="2" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-    </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="30" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="34" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A8:A33"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A7:A32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
